--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H2">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.512220166158981</v>
+        <v>0.8299853333333332</v>
       </c>
       <c r="N2">
-        <v>0.512220166158981</v>
+        <v>2.489956</v>
       </c>
       <c r="O2">
-        <v>0.6525462514788565</v>
+        <v>0.7350786001848651</v>
       </c>
       <c r="P2">
-        <v>0.6525462514788565</v>
+        <v>0.7350786001848651</v>
       </c>
       <c r="Q2">
-        <v>6.093307828998813</v>
+        <v>17.38347952328711</v>
       </c>
       <c r="R2">
-        <v>6.093307828998813</v>
+        <v>156.451315709584</v>
       </c>
       <c r="S2">
-        <v>0.4043311522964855</v>
+        <v>0.5437065680248537</v>
       </c>
       <c r="T2">
-        <v>0.4043311522964855</v>
+        <v>0.5437065680248536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H3">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.272735942313244</v>
+        <v>0.01102233333333333</v>
       </c>
       <c r="N3">
-        <v>0.272735942313244</v>
+        <v>0.033067</v>
       </c>
       <c r="O3">
-        <v>0.3474537485211436</v>
+        <v>0.009761957268446888</v>
       </c>
       <c r="P3">
-        <v>0.3474537485211436</v>
+        <v>0.009761957268446888</v>
       </c>
       <c r="Q3">
-        <v>3.244433082376641</v>
+        <v>0.2308552911764445</v>
       </c>
       <c r="R3">
-        <v>3.244433082376641</v>
+        <v>2.077697620588</v>
       </c>
       <c r="S3">
-        <v>0.2152895280463339</v>
+        <v>0.007220507143450664</v>
       </c>
       <c r="T3">
-        <v>0.2152895280463339</v>
+        <v>0.007220507143450662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.31320667034573</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H4">
-        <v>2.31320667034573</v>
+        <v>62.832964</v>
       </c>
       <c r="I4">
-        <v>0.1204880273293012</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J4">
-        <v>0.1204880273293012</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.512220166158981</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N4">
-        <v>0.512220166158981</v>
+        <v>0.8643099999999999</v>
       </c>
       <c r="O4">
-        <v>0.6525462514788565</v>
+        <v>0.2551594425466879</v>
       </c>
       <c r="P4">
-        <v>0.6525462514788565</v>
+        <v>0.2551594425466879</v>
       </c>
       <c r="Q4">
-        <v>1.184871105044553</v>
+        <v>6.034128790537778</v>
       </c>
       <c r="R4">
-        <v>1.184871105044553</v>
+        <v>54.30715911484</v>
       </c>
       <c r="S4">
-        <v>0.07862401058181753</v>
+        <v>0.1887306537985255</v>
       </c>
       <c r="T4">
-        <v>0.07862401058181753</v>
+        <v>0.1887306537985254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H5">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272735942313244</v>
+        <v>0.8299853333333332</v>
       </c>
       <c r="N5">
-        <v>0.272735942313244</v>
+        <v>2.489956</v>
       </c>
       <c r="O5">
-        <v>0.3474537485211436</v>
+        <v>0.7350786001848651</v>
       </c>
       <c r="P5">
-        <v>0.3474537485211436</v>
+        <v>0.7350786001848651</v>
       </c>
       <c r="Q5">
-        <v>0.6308946010020243</v>
+        <v>1.931454442611556</v>
       </c>
       <c r="R5">
-        <v>0.6308946010020243</v>
+        <v>17.383089983504</v>
       </c>
       <c r="S5">
-        <v>0.04186401674748371</v>
+        <v>0.06041048714567759</v>
       </c>
       <c r="T5">
-        <v>0.04186401674748371</v>
+        <v>0.06041048714567759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.98956024348008</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H6">
-        <v>4.98956024348008</v>
+        <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J6">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.512220166158981</v>
+        <v>0.01102233333333333</v>
       </c>
       <c r="N6">
-        <v>0.512220166158981</v>
+        <v>0.033067</v>
       </c>
       <c r="O6">
-        <v>0.6525462514788565</v>
+        <v>0.009761957268446888</v>
       </c>
       <c r="P6">
-        <v>0.6525462514788565</v>
+        <v>0.009761957268446888</v>
       </c>
       <c r="Q6">
-        <v>2.555753376975612</v>
+        <v>0.02565001311422222</v>
       </c>
       <c r="R6">
-        <v>2.555753376975612</v>
+        <v>0.230850118028</v>
       </c>
       <c r="S6">
-        <v>0.1695910886005534</v>
+        <v>0.000802260593539051</v>
       </c>
       <c r="T6">
-        <v>0.1695910886005534</v>
+        <v>0.0008022605935390509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.98956024348008</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H7">
-        <v>4.98956024348008</v>
+        <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J7">
-        <v>0.2598912923278794</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.272735942313244</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N7">
-        <v>0.272735942313244</v>
+        <v>0.8643099999999999</v>
       </c>
       <c r="O7">
-        <v>0.3474537485211436</v>
+        <v>0.2551594425466879</v>
       </c>
       <c r="P7">
-        <v>0.3474537485211436</v>
+        <v>0.2551594425466879</v>
       </c>
       <c r="Q7">
-        <v>1.360832414734239</v>
+        <v>0.6704437304488889</v>
       </c>
       <c r="R7">
-        <v>1.360832414734239</v>
+        <v>6.03399357404</v>
       </c>
       <c r="S7">
-        <v>0.09030020372732606</v>
+        <v>0.02096960273389594</v>
       </c>
       <c r="T7">
-        <v>0.09030020372732606</v>
+        <v>0.02096960273389594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.044818</v>
+      </c>
+      <c r="H8">
+        <v>15.134454</v>
+      </c>
+      <c r="I8">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="J8">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.8299853333333332</v>
+      </c>
+      <c r="N8">
+        <v>2.489956</v>
+      </c>
+      <c r="O8">
+        <v>0.7350786001848651</v>
+      </c>
+      <c r="P8">
+        <v>0.7350786001848651</v>
+      </c>
+      <c r="Q8">
+        <v>4.187124949336</v>
+      </c>
+      <c r="R8">
+        <v>37.684124544024</v>
+      </c>
+      <c r="S8">
+        <v>0.1309615450143339</v>
+      </c>
+      <c r="T8">
+        <v>0.1309615450143339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.044818</v>
+      </c>
+      <c r="H9">
+        <v>15.134454</v>
+      </c>
+      <c r="I9">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="J9">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01102233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.033067</v>
+      </c>
+      <c r="O9">
+        <v>0.009761957268446888</v>
+      </c>
+      <c r="P9">
+        <v>0.009761957268446888</v>
+      </c>
+      <c r="Q9">
+        <v>0.055605665602</v>
+      </c>
+      <c r="R9">
+        <v>0.500450990418</v>
+      </c>
+      <c r="S9">
+        <v>0.001739189531457174</v>
+      </c>
+      <c r="T9">
+        <v>0.001739189531457174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.044818</v>
+      </c>
+      <c r="H10">
+        <v>15.134454</v>
+      </c>
+      <c r="I10">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="J10">
+        <v>0.1781599205600575</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2881033333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.8643099999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2551594425466879</v>
+      </c>
+      <c r="P10">
+        <v>0.2551594425466879</v>
+      </c>
+      <c r="Q10">
+        <v>1.45342888186</v>
+      </c>
+      <c r="R10">
+        <v>13.08085993674</v>
+      </c>
+      <c r="S10">
+        <v>0.04545918601426648</v>
+      </c>
+      <c r="T10">
+        <v>0.04545918601426648</v>
       </c>
     </row>
   </sheetData>
